--- a/材料採購.xlsx
+++ b/材料採購.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>材料代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,27 @@
   <si>
     <t>會計科目(四階代碼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供應商代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
   </si>
 </sst>
 </file>
@@ -156,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -439,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -450,9 +472,10 @@
     <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -475,10 +498,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -500,8 +526,11 @@
       <c r="G2">
         <v>10000</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -523,8 +552,11 @@
       <c r="G3">
         <v>8000</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -546,8 +578,11 @@
       <c r="G4">
         <v>9000</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -569,8 +604,11 @@
       <c r="G5">
         <v>3600</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -591,6 +629,9 @@
       </c>
       <c r="G6">
         <v>12000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
